--- a/data/발표자_대쉬보드.xlsx
+++ b/data/발표자_대쉬보드.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="540" windowWidth="25680" windowHeight="15060"/>
+    <workbookView xWindow="540" yWindow="540" windowWidth="25680" windowHeight="15060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="speakers" sheetId="3" r:id="rId1"/>
@@ -11945,8 +11945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5"/>
@@ -19212,8 +19212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H993"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="12.5"/>
@@ -26413,5 +26413,6 @@
     <hyperlink ref="D7" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>